--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_0_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_0_37.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77184.9360903667</v>
+        <v>5151068.340509113</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77184.9360903667</v>
+        <v>5151068.340509113</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1263860609.232955</v>
+        <v>45283334.61778191</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12404.1756916306</v>
+        <v>926405.3701584247</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24809.86982009441</v>
+        <v>1852810.740316849</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37222.65624271519</v>
+        <v>2779216.110475273</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>49885.88329462605</v>
+        <v>3704692.961414656</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>62549.11034653689</v>
+        <v>4630169.812354038</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>75212.26737519627</v>
+        <v>5555646.663293418</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>87875.47891988307</v>
+        <v>6481123.514232797</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>100538.7020773745</v>
+        <v>7406600.365172172</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>113201.9291292854</v>
+        <v>8332077.216111548</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>125865.1561811962</v>
+        <v>9257554.067050925</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>138528.3832331071</v>
+        <v>10183030.9179903</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>151191.6102850179</v>
+        <v>11108507.76892969</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>163854.8373369288</v>
+        <v>12033984.61986907</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>176518.0643888396</v>
+        <v>12959461.47080846</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>189181.2914407506</v>
+        <v>13884938.32174785</v>
       </c>
     </row>
   </sheetData>
